--- a/Schedule - Spring 2020.xlsx
+++ b/Schedule - Spring 2020.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8847E1E-E35D-4625-ADEF-2CDD64B3226B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5DE42-C70C-4FFB-BB59-0894808D397E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1016,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>43871</v>
+        <v>43873</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>79</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="B8" s="3">
-        <v>43873</v>
+        <v>43878</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
@@ -1053,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>43878</v>
+        <v>43880</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>79</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="10" spans="1:8" ht="42.75">
       <c r="B10" s="3">
-        <v>43880</v>
+        <v>43885</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>50</v>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>43885</v>
+        <v>43887</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>79</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="3">
-        <v>43887</v>
+        <v>43892</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>50</v>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>79</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="14" spans="1:8" ht="28.5">
       <c r="B14" s="3">
-        <v>43894</v>
+        <v>43899</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>50</v>
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="3">
-        <v>43899</v>
+        <v>43901</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>79</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="3">
-        <v>43901</v>
+        <v>43913</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>50</v>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="3">
-        <v>43913</v>
+        <v>43915</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>79</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="3">
-        <v>43915</v>
+        <v>43920</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="3">
-        <v>43920</v>
+        <v>43922</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>79</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="20" spans="1:7" ht="28.5">
       <c r="B20" s="3">
-        <v>43922</v>
+        <v>43927</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>50</v>
@@ -1266,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>79</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="22" spans="1:7" ht="28.5">
       <c r="B22" s="3">
-        <v>43929</v>
+        <v>43934</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>50</v>
@@ -1306,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="3">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>79</v>
@@ -1326,7 +1326,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="3">
-        <v>43936</v>
+        <v>43941</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>50</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="25" spans="1:7" ht="28.5">
       <c r="B25" s="3">
-        <v>43941</v>
+        <v>43943</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>79</v>
@@ -1360,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="3">
-        <v>43943</v>
+        <v>43948</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>50</v>
@@ -1373,9 +1373,6 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="3">
-        <v>43948</v>
-      </c>
       <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
